--- a/output_file.xlsx
+++ b/output_file.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="events" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="slideshow" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="rewards" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="approval" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="purchased_items" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="sqlite_sequence" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="chat" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="students" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="faq_questions" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="notifications" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="administrators" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Announcement" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="events" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="slideshow" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rewards" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="approval" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="purchased_items" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sqlite_sequence" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="chat" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="students" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="faq_questions" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="notifications" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="administrators" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Announcement" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
